--- a/StructureDefinition-profile-PaymentNotice.xlsx
+++ b/StructureDefinition-profile-PaymentNotice.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7630043-06:00</t>
+    <t>2026-02-09T22:05:43.264048-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-PaymentNotice.xlsx
+++ b/StructureDefinition-profile-PaymentNotice.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.264048-06:00</t>
+    <t>2026-02-17T14:42:26.8745431-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-PaymentNotice.xlsx
+++ b/StructureDefinition-profile-PaymentNotice.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8745431-06:00</t>
+    <t>2026-02-20T11:59:20.9145854-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/PaymentNotice|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/PaymentNotice</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-profile-PaymentNotice.xlsx
+++ b/StructureDefinition-profile-PaymentNotice.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9145854-06:00</t>
+    <t>2026-02-21T13:36:54.3163547-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/PaymentNotice</t>
+    <t>http://hl7.org/fhir/StructureDefinition/PaymentNotice|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
